--- a/2021-04-30/web_tables/mae_cpi_wide.xlsx
+++ b/2021-04-30/web_tables/mae_cpi_wide.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
         <v>0.18</v>
@@ -400,7 +400,7 @@
         <v>0.21</v>
       </c>
       <c r="E2">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
+        <v>0.23</v>
+      </c>
+      <c r="C3">
         <v>0.24</v>
       </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
       <c r="D3">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="E3">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="C4">
         <v>0.25</v>
       </c>
       <c r="D4">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="E4">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -448,10 +448,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="C5">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="D5">
         <v>0.25</v>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="C6">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D6">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="E6">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -489,13 +489,13 @@
         <v>0.28</v>
       </c>
       <c r="C7">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D7">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="E7">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
